--- a/spreadsheet/web_scrape_pan.xlsx
+++ b/spreadsheet/web_scrape_pan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamlam/Desktop/FYP/ObjectPropertiesInformationExtraction/spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA17506-CB6F-3F43-A7F7-BA03EEC0AE24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82233E9-4D1D-674B-80D5-AE184AF424CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="35980" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="22100" windowWidth="32980" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="879">
   <si>
     <t xml:space="preserve">Tefal B3430642 Precision Plus Frypan, 28cm-Black, Aluminium, 28 cm
 Easy Plus coating provides durable non-stick performance
@@ -7045,12 +7045,6 @@
     <t>ceramic</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>wood</t>
-  </si>
-  <si>
     <t>glass</t>
   </si>
   <si>
@@ -7060,69 +7054,18 @@
     <t>red</t>
   </si>
   <si>
-    <t>stainless</t>
-  </si>
-  <si>
-    <t>change</t>
-  </si>
-  <si>
     <t>blue</t>
   </si>
   <si>
     <t>grey</t>
   </si>
   <si>
-    <t>granite</t>
-  </si>
-  <si>
-    <t>graphite</t>
-  </si>
-  <si>
-    <t>copper</t>
-  </si>
-  <si>
-    <t>multicolour</t>
-  </si>
-  <si>
-    <t>mirror</t>
-  </si>
-  <si>
     <t>silver</t>
   </si>
   <si>
-    <t>oven</t>
-  </si>
-  <si>
-    <t>stone</t>
-  </si>
-  <si>
-    <t>sauteuse</t>
-  </si>
-  <si>
-    <t>cerise</t>
-  </si>
-  <si>
-    <t>granistone</t>
-  </si>
-  <si>
-    <t>multi</t>
-  </si>
-  <si>
     <t>gray</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>cherry</t>
-  </si>
-  <si>
-    <t>marseille</t>
-  </si>
-  <si>
-    <t>pomegrante</t>
-  </si>
-  <si>
     <t>796g</t>
   </si>
   <si>
@@ -7501,9 +7444,6 @@
     <t>2.9L</t>
   </si>
   <si>
-    <t>17L</t>
-  </si>
-  <si>
     <t>1.6L</t>
   </si>
   <si>
@@ -7537,9 +7477,6 @@
     <t>1200ml</t>
   </si>
   <si>
-    <t>43L</t>
-  </si>
-  <si>
     <t>5.4L</t>
   </si>
   <si>
@@ -8339,16 +8276,26 @@
   </si>
   <si>
     <t>Height</t>
+  </si>
+  <si>
+    <t>mea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -8374,9 +8321,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8719,8 +8669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8729,8 +8679,8 @@
     <col min="2" max="2" width="45.33203125" customWidth="1"/>
     <col min="3" max="3" width="65.1640625" customWidth="1"/>
     <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" customWidth="1"/>
     <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
@@ -8739,34 +8689,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>889</v>
+        <v>868</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>890</v>
+        <v>869</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>891</v>
+        <v>870</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>892</v>
+        <v>871</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>893</v>
+        <v>872</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>894</v>
+        <v>873</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>896</v>
+        <v>875</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>897</v>
+        <v>876</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>898</v>
+        <v>877</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="224" x14ac:dyDescent="0.2">
@@ -8783,22 +8733,22 @@
         <v>465</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>607</v>
+        <v>588</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>637</v>
+        <v>616</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>753</v>
+        <v>732</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>824</v>
+        <v>803</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
@@ -8815,20 +8765,22 @@
         <v>465</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>475</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="H3" s="1" t="s">
-        <v>638</v>
+        <v>617</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>754</v>
+        <v>733</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>825</v>
+        <v>804</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
@@ -8845,25 +8797,25 @@
         <v>465</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>608</v>
+        <v>589</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>755</v>
+        <v>734</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="365" x14ac:dyDescent="0.2">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -8877,25 +8829,25 @@
         <v>465</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>609</v>
+        <v>477</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>692</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>756</v>
+        <v>735</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="380" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -8906,26 +8858,28 @@
         <v>314</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>478</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="H6" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>662</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="380" x14ac:dyDescent="0.2">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -8939,25 +8893,25 @@
         <v>465</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>472</v>
+        <v>692</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>610</v>
+        <v>591</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>642</v>
+        <v>621</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>757</v>
+        <v>736</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="380" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -8968,26 +8922,28 @@
         <v>316</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>480</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H8" s="1" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>758</v>
+        <v>737</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="335" x14ac:dyDescent="0.2">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -9000,21 +8956,23 @@
       <c r="D9" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="F9" s="1" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>611</v>
+        <v>592</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>644</v>
+        <v>623</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="256" x14ac:dyDescent="0.2">
@@ -9027,20 +8985,26 @@
       <c r="C10" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="F10" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="G10" s="1"/>
+        <v>482</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H10" s="1" t="s">
-        <v>644</v>
+        <v>623</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>828</v>
+        <v>807</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="256" x14ac:dyDescent="0.2">
@@ -9053,23 +9017,29 @@
       <c r="C11" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="F11" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="G11" s="1"/>
+        <v>483</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H11" s="1" t="s">
-        <v>645</v>
+        <v>624</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>759</v>
+        <v>738</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="224" x14ac:dyDescent="0.2">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="350" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -9079,23 +9049,29 @@
       <c r="C12" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="F12" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="G12" s="1"/>
+        <v>484</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H12" s="1" t="s">
-        <v>646</v>
+        <v>625</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>760</v>
+        <v>739</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="256" x14ac:dyDescent="0.2">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="335" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -9106,26 +9082,28 @@
         <v>321</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>473</v>
+        <v>692</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G13" s="1"/>
+        <v>485</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H13" s="1" t="s">
-        <v>647</v>
+        <v>626</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>750</v>
+        <v>729</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="256" x14ac:dyDescent="0.2">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -9138,22 +9116,26 @@
       <c r="D14" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="F14" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="G14" s="1"/>
+        <v>486</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H14" s="1" t="s">
-        <v>648</v>
+        <v>627</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>761</v>
+        <v>740</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="365" x14ac:dyDescent="0.2">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -9164,26 +9146,28 @@
         <v>323</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>470</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="G15" s="1"/>
+        <v>487</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H15" s="1" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>762</v>
+        <v>741</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="380" x14ac:dyDescent="0.2">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -9194,26 +9178,28 @@
         <v>324</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="G16" s="1"/>
+        <v>488</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H16" s="1" t="s">
-        <v>650</v>
+        <v>629</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>763</v>
+        <v>742</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="380" x14ac:dyDescent="0.2">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="395" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -9223,25 +9209,29 @@
       <c r="C17" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="E17" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="G17" s="1"/>
+        <v>489</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H17" s="1" t="s">
-        <v>651</v>
+        <v>630</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>764</v>
+        <v>743</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="240" x14ac:dyDescent="0.2">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -9252,26 +9242,28 @@
         <v>326</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G18" s="1"/>
+        <v>490</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H18" s="1" t="s">
-        <v>652</v>
+        <v>631</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="288" x14ac:dyDescent="0.2">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -9284,22 +9276,26 @@
       <c r="D19" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="F19" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="G19" s="1"/>
+        <v>491</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H19" s="1" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="335" x14ac:dyDescent="0.2">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -9313,25 +9309,25 @@
         <v>465</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>611</v>
+        <v>592</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="335" x14ac:dyDescent="0.2">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -9344,22 +9340,26 @@
       <c r="D21" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="F21" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="G21" s="1"/>
+        <v>493</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H21" s="1" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>765</v>
+        <v>744</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="208" x14ac:dyDescent="0.2">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -9370,24 +9370,28 @@
         <v>330</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="E22" s="1"/>
+        <v>692</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="F22" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="G22" s="1"/>
+        <v>494</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H22" s="1" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>766</v>
+        <v>745</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="272" x14ac:dyDescent="0.2">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="350" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -9400,22 +9404,26 @@
       <c r="D23" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="F23" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="G23" s="1"/>
+        <v>495</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H23" s="1" t="s">
-        <v>657</v>
+        <v>636</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>765</v>
+        <v>744</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="240" x14ac:dyDescent="0.2">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="256" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -9425,22 +9433,26 @@
       <c r="C24" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="E24" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="G24" s="1"/>
+        <v>496</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H24" s="1" t="s">
-        <v>658</v>
+        <v>637</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>764</v>
+        <v>743</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="224" x14ac:dyDescent="0.2">
@@ -9457,23 +9469,25 @@
         <v>465</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="G25" s="1"/>
+        <v>497</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H25" s="1" t="s">
-        <v>659</v>
+        <v>638</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>767</v>
+        <v>746</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="208" x14ac:dyDescent="0.2">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -9484,26 +9498,28 @@
         <v>334</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>466</v>
+        <v>878</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>476</v>
+        <v>692</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="G26" s="1"/>
+        <v>498</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H26" s="1" t="s">
-        <v>660</v>
+        <v>639</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>651</v>
+        <v>630</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="240" x14ac:dyDescent="0.2">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -9514,24 +9530,28 @@
         <v>335</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="E27" s="1"/>
+        <v>465</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="F27" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="G27" s="1"/>
+        <v>499</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H27" s="1" t="s">
-        <v>661</v>
+        <v>640</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>651</v>
+        <v>630</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="395" x14ac:dyDescent="0.2">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -9545,23 +9565,25 @@
         <v>465</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="G28" s="1"/>
+        <v>500</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H28" s="1" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="335" x14ac:dyDescent="0.2">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -9572,23 +9594,25 @@
         <v>337</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="E29" s="1"/>
+        <v>465</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="F29" s="1" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>612</v>
+        <v>593</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>663</v>
+        <v>642</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>768</v>
+        <v>747</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>831</v>
+        <v>810</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="224" x14ac:dyDescent="0.2">
@@ -9601,23 +9625,29 @@
       <c r="C30" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="F30" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="G30" s="1"/>
+        <v>502</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H30" s="1" t="s">
-        <v>664</v>
+        <v>643</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>769</v>
+        <v>748</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="365" x14ac:dyDescent="0.2">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -9631,23 +9661,25 @@
         <v>465</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>477</v>
+        <v>692</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="G31" s="1"/>
+        <v>503</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H31" s="1" t="s">
-        <v>665</v>
+        <v>644</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>646</v>
+        <v>625</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="288" x14ac:dyDescent="0.2">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="350" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -9658,23 +9690,25 @@
         <v>340</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>466</v>
+        <v>692</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="G32" s="1"/>
+        <v>504</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H32" s="1" t="s">
-        <v>666</v>
+        <v>645</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>770</v>
+        <v>749</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>843</v>
+        <v>822</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="224" x14ac:dyDescent="0.2">
@@ -9688,21 +9722,25 @@
         <v>341</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E33" s="1"/>
+        <v>465</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="F33" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G33" s="1"/>
+        <v>505</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H33" s="1" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>771</v>
+        <v>750</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="176" x14ac:dyDescent="0.2">
@@ -9715,23 +9753,29 @@
       <c r="C34" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="F34" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G34" s="1"/>
+        <v>506</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H34" s="1" t="s">
-        <v>668</v>
+        <v>647</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>762</v>
+        <v>741</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="256" x14ac:dyDescent="0.2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -9742,26 +9786,28 @@
         <v>343</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>478</v>
+        <v>692</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="G35" s="1"/>
+        <v>507</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H35" s="1" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>651</v>
+        <v>630</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="256" x14ac:dyDescent="0.2">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -9772,26 +9818,28 @@
         <v>344</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="G36" s="1"/>
+        <v>508</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H36" s="1" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="320" x14ac:dyDescent="0.2">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -9804,22 +9852,26 @@
       <c r="D37" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="F37" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="G37" s="1"/>
+        <v>509</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H37" s="1" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>772</v>
+        <v>751</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="380" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -9833,23 +9885,25 @@
         <v>465</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="G38" s="1"/>
+        <v>496</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H38" s="1" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>748</v>
+        <v>727</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="288" x14ac:dyDescent="0.2">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="365" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -9860,26 +9914,28 @@
         <v>347</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>473</v>
+        <v>692</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="G39" s="1"/>
+        <v>510</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H39" s="1" t="s">
-        <v>671</v>
+        <v>650</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>773</v>
+        <v>752</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="208" x14ac:dyDescent="0.2">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="350" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -9889,23 +9945,29 @@
       <c r="C40" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="F40" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="G40" s="1"/>
+        <v>511</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H40" s="1" t="s">
-        <v>672</v>
+        <v>651</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>774</v>
+        <v>753</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="320" x14ac:dyDescent="0.2">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="395" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -9918,19 +9980,23 @@
       <c r="D41" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="F41" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="G41" s="1"/>
+        <v>512</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H41" s="1" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>775</v>
+        <v>754</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>776</v>
+        <v>755</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
@@ -9943,27 +10009,29 @@
       <c r="C42" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="E42" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>613</v>
+        <v>594</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>646</v>
+        <v>625</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>717</v>
+        <v>696</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="320" x14ac:dyDescent="0.2">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -9977,23 +10045,25 @@
         <v>465</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="G43" s="1"/>
+        <v>513</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H43" s="1" t="s">
-        <v>651</v>
+        <v>630</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>651</v>
+        <v>630</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="335" x14ac:dyDescent="0.2">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="395" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -10004,26 +10074,28 @@
         <v>352</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="G44" s="1"/>
+        <v>514</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H44" s="1" t="s">
-        <v>673</v>
+        <v>652</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>776</v>
+        <v>755</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="335" x14ac:dyDescent="0.2">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="395" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -10036,19 +10108,23 @@
       <c r="D45" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="F45" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="G45" s="1"/>
+        <v>515</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H45" s="1" t="s">
-        <v>674</v>
+        <v>653</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>777</v>
+        <v>756</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>644</v>
+        <v>623</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="350" x14ac:dyDescent="0.2">
@@ -10061,22 +10137,26 @@
       <c r="C46" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="E46" s="1" t="s">
-        <v>479</v>
+        <v>692</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="G46" s="1"/>
+        <v>516</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H46" s="1" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>778</v>
+        <v>757</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>849</v>
+        <v>828</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
@@ -10093,23 +10173,25 @@
         <v>465</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="G47" s="1"/>
+        <v>517</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H47" s="1" t="s">
-        <v>676</v>
+        <v>655</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>779</v>
+        <v>758</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="256" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="350" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -10122,22 +10204,26 @@
       <c r="D48" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="F48" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="G48" s="1"/>
+        <v>499</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H48" s="1" t="s">
-        <v>677</v>
+        <v>656</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>780</v>
+        <v>759</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="395" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -10151,25 +10237,25 @@
         <v>465</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>614</v>
+        <v>595</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>678</v>
+        <v>657</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="380" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -10183,22 +10269,22 @@
         <v>465</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>480</v>
+        <v>692</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>679</v>
+        <v>658</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>679</v>
+        <v>658</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>644</v>
+        <v>623</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
@@ -10211,24 +10297,26 @@
       <c r="C51" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="E51" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>680</v>
+        <v>659</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>642</v>
+        <v>621</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>848</v>
+        <v>827</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="176" x14ac:dyDescent="0.2">
@@ -10241,23 +10329,29 @@
       <c r="C52" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="F52" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="G52" s="1"/>
+        <v>521</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H52" s="1" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>762</v>
+        <v>741</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="350" x14ac:dyDescent="0.2">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="380" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -10268,28 +10362,28 @@
         <v>361</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>609</v>
+        <v>590</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>782</v>
+        <v>761</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="240" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="380" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -10300,26 +10394,28 @@
         <v>362</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="G54" s="1"/>
+        <v>523</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H54" s="1" t="s">
-        <v>683</v>
+        <v>662</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>748</v>
+        <v>727</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="350" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="365" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -10333,25 +10429,25 @@
         <v>465</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>617</v>
+        <v>598</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>684</v>
+        <v>663</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>783</v>
+        <v>762</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="365" x14ac:dyDescent="0.2">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -10361,25 +10457,29 @@
       <c r="C56" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="E56" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="G56" s="1"/>
+        <v>525</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H56" s="1" t="s">
-        <v>685</v>
+        <v>664</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>745</v>
+        <v>724</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="320" x14ac:dyDescent="0.2">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -10390,24 +10490,28 @@
         <v>365</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="E57" s="1"/>
+        <v>465</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="F57" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="G57" s="1"/>
+        <v>526</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H57" s="1" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>784</v>
+        <v>763</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="365" x14ac:dyDescent="0.2">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -10421,23 +10525,25 @@
         <v>465</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="G58" s="1"/>
+        <v>527</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H58" s="1" t="s">
-        <v>686</v>
+        <v>665</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>686</v>
+        <v>665</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="128" x14ac:dyDescent="0.2">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="380" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
@@ -10448,24 +10554,28 @@
         <v>367</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="E59" s="1"/>
+        <v>465</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="F59" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="G59" s="1"/>
+        <v>496</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H59" s="1" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="365" x14ac:dyDescent="0.2">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -10479,25 +10589,25 @@
         <v>465</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>618</v>
+        <v>599</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>688</v>
+        <v>667</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>770</v>
+        <v>749</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="380" x14ac:dyDescent="0.2">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
@@ -10508,28 +10618,28 @@
         <v>369</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>619</v>
+        <v>529</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>692</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>689</v>
+        <v>668</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>735</v>
+        <v>714</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="350" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
@@ -10540,28 +10650,28 @@
         <v>370</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>482</v>
+        <v>692</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>690</v>
+        <v>669</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="350" x14ac:dyDescent="0.2">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="395" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
@@ -10575,23 +10685,25 @@
         <v>465</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>483</v>
+        <v>692</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="G63" s="1"/>
+        <v>514</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H63" s="1" t="s">
-        <v>673</v>
+        <v>652</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>776</v>
+        <v>755</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="380" x14ac:dyDescent="0.2">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
@@ -10601,25 +10713,29 @@
       <c r="C64" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="E64" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="G64" s="1"/>
+        <v>531</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H64" s="1" t="s">
-        <v>691</v>
+        <v>670</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>785</v>
+        <v>764</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="365" x14ac:dyDescent="0.2">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
@@ -10633,23 +10749,25 @@
         <v>465</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="G65" s="1"/>
+        <v>517</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H65" s="1" t="s">
-        <v>692</v>
+        <v>671</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>692</v>
+        <v>671</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="320" x14ac:dyDescent="0.2">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
@@ -10663,23 +10781,25 @@
         <v>465</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>484</v>
+        <v>692</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="G66" s="1"/>
+        <v>532</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H66" s="1" t="s">
-        <v>693</v>
+        <v>672</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>786</v>
+        <v>765</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="335" x14ac:dyDescent="0.2">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="365" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
@@ -10693,20 +10813,22 @@
         <v>465</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="G67" s="1"/>
+        <v>533</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H67" s="1" t="s">
-        <v>694</v>
+        <v>673</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>787</v>
+        <v>766</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>839</v>
+        <v>818</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="288" x14ac:dyDescent="0.2">
@@ -10719,27 +10841,29 @@
       <c r="C68" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D68" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="E68" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>618</v>
+        <v>599</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>695</v>
+        <v>674</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>788</v>
+        <v>767</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="335" x14ac:dyDescent="0.2">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="365" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
@@ -10749,22 +10873,26 @@
       <c r="C69" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D69" s="1"/>
+      <c r="D69" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="E69" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="G69" s="1"/>
+        <v>535</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H69" s="1" t="s">
-        <v>691</v>
+        <v>670</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>789</v>
+        <v>768</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
@@ -10777,27 +10905,29 @@
       <c r="C70" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D70" s="1"/>
+      <c r="D70" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="E70" s="1" t="s">
-        <v>485</v>
+        <v>692</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>696</v>
+        <v>675</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>677</v>
+        <v>656</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="350" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
@@ -10808,26 +10938,28 @@
         <v>379</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="G71" s="1"/>
+        <v>537</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H71" s="1" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="240" x14ac:dyDescent="0.2">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="365" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
@@ -10838,24 +10970,28 @@
         <v>380</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E72" s="1"/>
+        <v>465</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="F72" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="G72" s="1"/>
+        <v>538</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H72" s="1" t="s">
-        <v>698</v>
+        <v>677</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>790</v>
+        <v>769</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="335" x14ac:dyDescent="0.2">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
@@ -10866,26 +11002,28 @@
         <v>381</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>486</v>
+        <v>692</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="G73" s="1"/>
+        <v>524</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H73" s="1" t="s">
-        <v>699</v>
+        <v>678</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>791</v>
+        <v>770</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="350" x14ac:dyDescent="0.2">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
@@ -10899,20 +11037,22 @@
         <v>465</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="G74" s="1"/>
+        <v>539</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H74" s="1" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>679</v>
+        <v>658</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
@@ -10926,28 +11066,28 @@
         <v>383</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>487</v>
+        <v>692</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>619</v>
+        <v>540</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>692</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>701</v>
+        <v>680</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>792</v>
+        <v>771</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="224" x14ac:dyDescent="0.2">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="335" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
@@ -10957,23 +11097,29 @@
       <c r="C76" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
+      <c r="D76" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="F76" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G76" s="1"/>
+        <v>541</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H76" s="1" t="s">
-        <v>702</v>
+        <v>681</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>785</v>
+        <v>764</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="208" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="256" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
@@ -10986,22 +11132,26 @@
       <c r="D77" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="E77" s="1"/>
+      <c r="E77" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="F77" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="G77" s="1"/>
+        <v>542</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H77" s="1" t="s">
-        <v>703</v>
+        <v>682</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>793</v>
+        <v>772</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="335" x14ac:dyDescent="0.2">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="395" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
@@ -11011,25 +11161,29 @@
       <c r="C78" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="D78" s="1"/>
+      <c r="D78" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="E78" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="G78" s="1"/>
+        <v>543</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H78" s="1" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>794</v>
+        <v>773</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="350" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="395" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
@@ -11043,23 +11197,25 @@
         <v>465</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="G79" s="1"/>
+        <v>504</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H79" s="1" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>795</v>
+        <v>774</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="176" x14ac:dyDescent="0.2">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="256" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
@@ -11070,24 +11226,28 @@
         <v>388</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="E80" s="1"/>
+        <v>465</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="F80" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="G80" s="1"/>
+        <v>544</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H80" s="1" t="s">
-        <v>705</v>
+        <v>684</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>773</v>
+        <v>752</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="395" x14ac:dyDescent="0.2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
@@ -11101,25 +11261,25 @@
         <v>465</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>609</v>
+        <v>590</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>796</v>
+        <v>775</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="240" x14ac:dyDescent="0.2">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="320" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
@@ -11132,19 +11292,23 @@
       <c r="D82" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E82" s="1"/>
+      <c r="E82" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="F82" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="G82" s="1"/>
+        <v>546</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="H82" s="1" t="s">
-        <v>706</v>
+        <v>685</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>797</v>
+        <v>776</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="272" x14ac:dyDescent="0.2">
@@ -11157,25 +11321,29 @@
       <c r="C83" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D83" s="1"/>
+      <c r="D83" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="E83" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="G83" s="1"/>
+        <v>547</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H83" s="1" t="s">
-        <v>707</v>
+        <v>686</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>757</v>
+        <v>736</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="365" x14ac:dyDescent="0.2">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
@@ -11188,22 +11356,26 @@
       <c r="D84" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E84" s="1"/>
+      <c r="E84" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="F84" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="G84" s="1"/>
+        <v>548</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H84" s="1" t="s">
-        <v>708</v>
+        <v>687</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>648</v>
+        <v>627</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="160" x14ac:dyDescent="0.2">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="304" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
@@ -11213,23 +11385,29 @@
       <c r="C85" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
+      <c r="D85" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="F85" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G85" s="1"/>
+        <v>549</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H85" s="1" t="s">
-        <v>709</v>
+        <v>688</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="350" x14ac:dyDescent="0.2">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
@@ -11240,25 +11418,25 @@
         <v>394</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>865</v>
+        <v>844</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="320" x14ac:dyDescent="0.2">
@@ -11271,25 +11449,29 @@
       <c r="C87" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="D87" s="1"/>
+      <c r="D87" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="E87" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="G87" s="1"/>
+        <v>551</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H87" s="1" t="s">
-        <v>709</v>
+        <v>688</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>648</v>
+        <v>627</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="256" x14ac:dyDescent="0.2">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
@@ -11303,20 +11485,22 @@
         <v>465</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="G88" s="1"/>
+        <v>552</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H88" s="1" t="s">
-        <v>710</v>
+        <v>689</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>866</v>
+        <v>845</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="350" x14ac:dyDescent="0.2">
@@ -11329,25 +11513,29 @@
       <c r="C89" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="D89" s="1"/>
+      <c r="D89" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="E89" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="G89" s="1"/>
+        <v>553</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H89" s="1" t="s">
-        <v>711</v>
+        <v>690</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>798</v>
+        <v>777</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="350" x14ac:dyDescent="0.2">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
@@ -11361,25 +11549,25 @@
         <v>465</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>712</v>
+        <v>691</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>799</v>
+        <v>778</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="272" x14ac:dyDescent="0.2">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
@@ -11393,21 +11581,25 @@
         <v>465</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
+        <v>471</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H91" s="1" t="s">
-        <v>713</v>
+        <v>692</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>713</v>
+        <v>692</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="335" x14ac:dyDescent="0.2">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
@@ -11421,23 +11613,25 @@
         <v>465</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="G92" s="1"/>
+        <v>555</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H92" s="1" t="s">
-        <v>703</v>
+        <v>682</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>800</v>
+        <v>779</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="240" x14ac:dyDescent="0.2">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="395" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
@@ -11451,20 +11645,22 @@
         <v>465</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="G93" s="1"/>
+        <v>556</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H93" s="1" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>766</v>
+        <v>745</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>868</v>
+        <v>847</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
@@ -11481,25 +11677,25 @@
         <v>465</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>472</v>
+        <v>692</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>650</v>
+        <v>629</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>773</v>
+        <v>752</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="240" x14ac:dyDescent="0.2">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="395" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
@@ -11512,24 +11708,26 @@
       <c r="D95" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E95" s="1"/>
+      <c r="E95" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="F95" s="1" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>611</v>
+        <v>592</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>715</v>
+        <v>694</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>801</v>
+        <v>780</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="320" x14ac:dyDescent="0.2">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="395" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
@@ -11542,22 +11740,26 @@
       <c r="D96" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E96" s="1"/>
+      <c r="E96" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="F96" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="G96" s="1"/>
+        <v>557</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H96" s="1" t="s">
-        <v>716</v>
+        <v>695</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>802</v>
+        <v>781</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="288" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
@@ -11568,24 +11770,28 @@
         <v>405</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="E97" s="1"/>
+        <v>465</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="F97" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G97" s="1"/>
+        <v>558</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H97" s="1" t="s">
-        <v>717</v>
+        <v>696</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>803</v>
+        <v>782</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="350" x14ac:dyDescent="0.2">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
@@ -11595,25 +11801,29 @@
       <c r="C98" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="D98" s="1"/>
+      <c r="D98" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="E98" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G98" s="1"/>
+        <v>559</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H98" s="1" t="s">
-        <v>642</v>
+        <v>621</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>766</v>
+        <v>745</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="380" x14ac:dyDescent="0.2">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
@@ -11627,23 +11837,25 @@
         <v>465</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>477</v>
+        <v>692</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="G99" s="1"/>
+        <v>475</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H99" s="1" t="s">
-        <v>718</v>
+        <v>697</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>804</v>
+        <v>783</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="288" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="365" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
@@ -11654,26 +11866,28 @@
         <v>408</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>473</v>
+        <v>692</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="G100" s="1"/>
+        <v>560</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H100" s="1" t="s">
-        <v>688</v>
+        <v>667</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>698</v>
+        <v>677</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="350" x14ac:dyDescent="0.2">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="365" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
@@ -11687,23 +11901,25 @@
         <v>465</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="G101" s="1"/>
+        <v>561</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H101" s="1" t="s">
-        <v>719</v>
+        <v>698</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>805</v>
+        <v>784</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="224" x14ac:dyDescent="0.2">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
@@ -11716,19 +11932,23 @@
       <c r="D102" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E102" s="1"/>
+      <c r="E102" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="F102" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="G102" s="1"/>
+        <v>562</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H102" s="1" t="s">
-        <v>720</v>
+        <v>699</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>806</v>
+        <v>785</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>872</v>
+        <v>851</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="350" x14ac:dyDescent="0.2">
@@ -11742,28 +11962,28 @@
         <v>411</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>721</v>
+        <v>700</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>807</v>
+        <v>786</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="395" x14ac:dyDescent="0.2">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
@@ -11777,23 +11997,25 @@
         <v>465</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="G104" s="1"/>
+        <v>564</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H104" s="1" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="288" x14ac:dyDescent="0.2">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="395" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
@@ -11807,23 +12029,25 @@
         <v>465</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>483</v>
+        <v>692</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="G105" s="1"/>
+        <v>481</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H105" s="1" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>750</v>
+        <v>729</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="256" x14ac:dyDescent="0.2">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="380" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
@@ -11834,26 +12058,28 @@
         <v>414</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="G106" s="1"/>
+        <v>534</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H106" s="1" t="s">
-        <v>680</v>
+        <v>659</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>773</v>
+        <v>752</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="320" x14ac:dyDescent="0.2">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="350" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>105</v>
       </c>
@@ -11867,23 +12093,25 @@
         <v>465</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>483</v>
+        <v>692</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="G107" s="1"/>
+        <v>565</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H107" s="1" t="s">
-        <v>638</v>
+        <v>617</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>642</v>
+        <v>621</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="335" x14ac:dyDescent="0.2">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
@@ -11897,20 +12125,22 @@
         <v>465</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>489</v>
+        <v>692</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="G108" s="1"/>
+        <v>543</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H108" s="1" t="s">
-        <v>723</v>
+        <v>702</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>808</v>
+        <v>787</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>874</v>
+        <v>853</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="320" x14ac:dyDescent="0.2">
@@ -11924,26 +12154,28 @@
         <v>417</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="G109" s="1"/>
+        <v>566</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H109" s="1" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>809</v>
+        <v>788</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="350" x14ac:dyDescent="0.2">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
@@ -11953,25 +12185,29 @@
       <c r="C110" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D110" s="1"/>
+      <c r="D110" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="E110" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="G110" s="1"/>
+        <v>567</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H110" s="1" t="s">
-        <v>709</v>
+        <v>688</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>758</v>
+        <v>737</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="380" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
@@ -11982,28 +12218,28 @@
         <v>419</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>725</v>
+        <v>704</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>725</v>
+        <v>704</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="335" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
@@ -12017,23 +12253,25 @@
         <v>465</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G112" s="1"/>
+        <v>569</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="H112" s="1" t="s">
-        <v>726</v>
+        <v>705</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="395" x14ac:dyDescent="0.2">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
@@ -12047,25 +12285,25 @@
         <v>465</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>589</v>
+        <v>570</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="240" x14ac:dyDescent="0.2">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="320" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
@@ -12078,22 +12316,26 @@
       <c r="D114" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E114" s="1"/>
+      <c r="E114" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="F114" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="G114" s="1"/>
+        <v>571</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="H114" s="1" t="s">
-        <v>727</v>
+        <v>706</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>765</v>
+        <v>744</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="395" x14ac:dyDescent="0.2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
@@ -12104,28 +12346,28 @@
         <v>423</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>728</v>
+        <v>707</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>783</v>
+        <v>762</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="192" x14ac:dyDescent="0.2">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="240" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
@@ -12135,23 +12377,29 @@
       <c r="C116" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
+      <c r="D116" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="F116" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="G116" s="1"/>
+        <v>478</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="H116" s="1" t="s">
-        <v>707</v>
+        <v>686</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>782</v>
+        <v>761</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="256" x14ac:dyDescent="0.2">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="350" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
@@ -12164,22 +12412,26 @@
       <c r="D117" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E117" s="1"/>
+      <c r="E117" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="F117" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="G117" s="1"/>
+        <v>572</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="H117" s="1" t="s">
-        <v>729</v>
+        <v>708</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>792</v>
+        <v>771</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="365" x14ac:dyDescent="0.2">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
@@ -12192,26 +12444,26 @@
       <c r="D118" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>472</v>
+      <c r="E118" s="2" t="s">
+        <v>692</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>730</v>
+        <v>709</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>748</v>
+        <v>727</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="176" x14ac:dyDescent="0.2">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="224" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
@@ -12222,21 +12474,25 @@
         <v>427</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E119" s="1"/>
+        <v>465</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="F119" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G119" s="1"/>
+        <v>477</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="H119" s="1" t="s">
-        <v>680</v>
+        <v>659</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>745</v>
+        <v>724</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>869</v>
+        <v>848</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="240" x14ac:dyDescent="0.2">
@@ -12252,21 +12508,23 @@
       <c r="D120" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>472</v>
+      <c r="E120" s="2" t="s">
+        <v>692</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="G120" s="1"/>
+        <v>567</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="H120" s="1" t="s">
-        <v>731</v>
+        <v>710</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>803</v>
+        <v>782</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>776</v>
+        <v>755</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="350" x14ac:dyDescent="0.2">
@@ -12283,20 +12541,22 @@
         <v>465</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="G121" s="1"/>
+        <v>494</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="H121" s="1" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>642</v>
+        <v>621</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="272" x14ac:dyDescent="0.2">
@@ -12313,25 +12573,25 @@
         <v>465</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>611</v>
+        <v>592</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>642</v>
+        <v>621</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>642</v>
+        <v>621</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="350" x14ac:dyDescent="0.2">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="365" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
@@ -12341,25 +12601,29 @@
       <c r="C123" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="D123" s="1"/>
+      <c r="D123" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="E123" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="G123" s="1"/>
+        <v>546</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="H123" s="1" t="s">
-        <v>732</v>
+        <v>711</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>741</v>
+        <v>720</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="395" x14ac:dyDescent="0.2">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>122</v>
       </c>
@@ -12373,25 +12637,25 @@
         <v>465</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>733</v>
+        <v>712</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>810</v>
+        <v>789</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" ht="256" x14ac:dyDescent="0.2">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>123</v>
       </c>
@@ -12404,22 +12668,26 @@
       <c r="D125" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E125" s="1"/>
+      <c r="E125" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="F125" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="G125" s="1"/>
+        <v>573</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="H125" s="1" t="s">
-        <v>638</v>
+        <v>617</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>811</v>
+        <v>790</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" ht="240" x14ac:dyDescent="0.2">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="335" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>124</v>
       </c>
@@ -12433,20 +12701,22 @@
         <v>465</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="G126" s="1"/>
+        <v>542</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="H126" s="1" t="s">
-        <v>734</v>
+        <v>713</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>646</v>
+        <v>625</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>878</v>
+        <v>857</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
@@ -12459,27 +12729,29 @@
       <c r="C127" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1" t="s">
-        <v>491</v>
+      <c r="D127" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>692</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>735</v>
+        <v>714</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>812</v>
+        <v>791</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="304" x14ac:dyDescent="0.2">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="335" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>126</v>
       </c>
@@ -12492,22 +12764,26 @@
       <c r="D128" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E128" s="1"/>
+      <c r="E128" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="F128" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="G128" s="1"/>
+        <v>574</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="H128" s="1" t="s">
-        <v>736</v>
+        <v>715</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>777</v>
+        <v>756</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="176" x14ac:dyDescent="0.2">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="208" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>127</v>
       </c>
@@ -12517,23 +12793,29 @@
       <c r="C129" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
+      <c r="D129" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="F129" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="G129" s="1"/>
+        <v>479</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="H129" s="1" t="s">
-        <v>737</v>
+        <v>716</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>813</v>
+        <v>792</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="335" x14ac:dyDescent="0.2">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="395" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>128</v>
       </c>
@@ -12543,25 +12825,29 @@
       <c r="C130" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="D130" s="1"/>
+      <c r="D130" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="E130" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="G130" s="1"/>
+        <v>575</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="H130" s="1" t="s">
-        <v>738</v>
+        <v>717</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" ht="320" x14ac:dyDescent="0.2">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>129</v>
       </c>
@@ -12575,25 +12861,25 @@
         <v>465</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>595</v>
+        <v>576</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>631</v>
+        <v>692</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>814</v>
+        <v>793</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="128" x14ac:dyDescent="0.2">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="365" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>130</v>
       </c>
@@ -12604,24 +12890,28 @@
         <v>440</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="E132" s="1"/>
+        <v>465</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="F132" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="G132" s="1"/>
+        <v>553</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="H132" s="1" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>815</v>
+        <v>794</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" ht="365" x14ac:dyDescent="0.2">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>131</v>
       </c>
@@ -12635,25 +12925,25 @@
         <v>467</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>632</v>
+        <v>611</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>739</v>
+        <v>718</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" ht="288" x14ac:dyDescent="0.2">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>132</v>
       </c>
@@ -12666,24 +12956,26 @@
       <c r="D134" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E134" s="1"/>
+      <c r="E134" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="F134" s="1" t="s">
-        <v>596</v>
+        <v>577</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>633</v>
+        <v>612</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>740</v>
+        <v>719</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>741</v>
+        <v>720</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" ht="350" x14ac:dyDescent="0.2">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>133</v>
       </c>
@@ -12696,26 +12988,26 @@
       <c r="D135" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E135" s="1" t="s">
-        <v>477</v>
+      <c r="E135" s="2" t="s">
+        <v>692</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>597</v>
+        <v>578</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>634</v>
+        <v>613</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>741</v>
+        <v>720</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" ht="240" x14ac:dyDescent="0.2">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="320" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>134</v>
       </c>
@@ -12728,22 +13020,26 @@
       <c r="D136" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E136" s="1"/>
+      <c r="E136" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="F136" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="G136" s="1"/>
+        <v>500</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="H136" s="1" t="s">
-        <v>742</v>
+        <v>721</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>777</v>
+        <v>756</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" ht="365" x14ac:dyDescent="0.2">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>135</v>
       </c>
@@ -12753,22 +13049,26 @@
       <c r="C137" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="D137" s="1"/>
+      <c r="D137" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="E137" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="G137" s="1"/>
+        <v>579</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="H137" s="1" t="s">
-        <v>743</v>
+        <v>722</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>757</v>
+        <v>736</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="365" x14ac:dyDescent="0.2">
@@ -12781,25 +13081,29 @@
       <c r="C138" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D138" s="1"/>
+      <c r="D138" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="E138" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="G138" s="1"/>
+        <v>509</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="H138" s="1" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>817</v>
+        <v>796</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" ht="335" x14ac:dyDescent="0.2">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>137</v>
       </c>
@@ -12812,22 +13116,26 @@
       <c r="D139" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E139" s="1"/>
+      <c r="E139" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="F139" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="G139" s="1"/>
+        <v>534</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="H139" s="1" t="s">
-        <v>744</v>
+        <v>723</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>758</v>
+        <v>737</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" ht="288" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="350" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>138</v>
       </c>
@@ -12840,22 +13148,26 @@
       <c r="D140" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E140" s="1"/>
+      <c r="E140" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="F140" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="G140" s="1"/>
+        <v>476</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="H140" s="1" t="s">
-        <v>674</v>
+        <v>653</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>818</v>
+        <v>797</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" ht="320" x14ac:dyDescent="0.2">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>139</v>
       </c>
@@ -12866,23 +13178,25 @@
         <v>449</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G141" s="1"/>
+        <v>580</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="H141" s="1" t="s">
-        <v>683</v>
+        <v>662</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>819</v>
+        <v>798</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>773</v>
+        <v>752</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="272" x14ac:dyDescent="0.2">
@@ -12895,25 +13209,29 @@
       <c r="C142" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="D142" s="1"/>
+      <c r="D142" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="E142" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="G142" s="1"/>
+        <v>500</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="H142" s="1" t="s">
-        <v>745</v>
+        <v>724</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>745</v>
+        <v>724</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" ht="380" x14ac:dyDescent="0.2">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>141</v>
       </c>
@@ -12927,20 +13245,22 @@
         <v>465</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="G143" s="1"/>
+        <v>581</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="H143" s="1" t="s">
-        <v>725</v>
+        <v>704</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>884</v>
+        <v>863</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="395" x14ac:dyDescent="0.2">
@@ -12957,22 +13277,22 @@
         <v>465</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>635</v>
+        <v>614</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>746</v>
+        <v>725</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>777</v>
+        <v>756</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>885</v>
+        <v>864</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="350" x14ac:dyDescent="0.2">
@@ -12985,25 +13305,29 @@
       <c r="C145" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D145" s="1"/>
+      <c r="D145" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="E145" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="G145" s="1"/>
+        <v>582</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="H145" s="1" t="s">
-        <v>747</v>
+        <v>726</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>820</v>
+        <v>799</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" ht="160" x14ac:dyDescent="0.2">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="176" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>144</v>
       </c>
@@ -13016,22 +13340,26 @@
       <c r="D146" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E146" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
+      <c r="E146" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="H146" s="1" t="s">
-        <v>713</v>
+        <v>692</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>713</v>
+        <v>692</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" ht="224" x14ac:dyDescent="0.2">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>145</v>
       </c>
@@ -13045,21 +13373,25 @@
         <v>465</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
+        <v>472</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="H147" s="1" t="s">
-        <v>713</v>
+        <v>692</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>713</v>
+        <v>692</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" ht="350" x14ac:dyDescent="0.2">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="395" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>146</v>
       </c>
@@ -13069,22 +13401,26 @@
       <c r="C148" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="D148" s="1"/>
+      <c r="D148" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="E148" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G148" s="1"/>
+        <v>490</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="H148" s="1" t="s">
-        <v>748</v>
+        <v>727</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>821</v>
+        <v>800</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>886</v>
+        <v>865</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
@@ -13097,25 +13433,29 @@
       <c r="C149" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="D149" s="1"/>
+      <c r="D149" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="E149" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="G149" s="1"/>
+        <v>583</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="H149" s="1" t="s">
-        <v>725</v>
+        <v>704</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" ht="128" x14ac:dyDescent="0.2">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="160" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>148</v>
       </c>
@@ -13128,20 +13468,26 @@
       <c r="D150" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
+      <c r="E150" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="H150" s="1" t="s">
-        <v>713</v>
+        <v>692</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>713</v>
+        <v>692</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" ht="272" x14ac:dyDescent="0.2">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="335" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>149</v>
       </c>
@@ -13151,22 +13497,26 @@
       <c r="C151" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1" t="s">
-        <v>492</v>
+      <c r="D151" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>692</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="G151" s="1"/>
+        <v>584</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="H151" s="1" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>817</v>
+        <v>796</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>865</v>
+        <v>844</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
@@ -13179,25 +13529,29 @@
       <c r="C152" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="D152" s="1"/>
+      <c r="D152" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="E152" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="G152" s="1"/>
+        <v>585</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="H152" s="1" t="s">
-        <v>749</v>
+        <v>728</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>651</v>
+        <v>630</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" ht="395" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>151</v>
       </c>
@@ -13207,24 +13561,26 @@
       <c r="C153" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D153" s="1"/>
+      <c r="D153" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="E153" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>880</v>
+        <v>859</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="380" x14ac:dyDescent="0.2">
@@ -13241,25 +13597,25 @@
         <v>465</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>605</v>
+        <v>586</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>636</v>
+        <v>615</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>750</v>
+        <v>729</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>822</v>
+        <v>801</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" ht="224" x14ac:dyDescent="0.2">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="395" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>153</v>
       </c>
@@ -13270,24 +13626,28 @@
         <v>463</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="E155" s="1"/>
+        <v>466</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="F155" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="G155" s="1"/>
+        <v>587</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="H155" s="1" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>823</v>
+        <v>802</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" ht="160" x14ac:dyDescent="0.2">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="304" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>154</v>
       </c>
@@ -13297,20 +13657,26 @@
       <c r="C156" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
+      <c r="D156" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="F156" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="G156" s="1"/>
+        <v>555</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="H156" s="1" t="s">
-        <v>752</v>
+        <v>731</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>642</v>
+        <v>621</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>888</v>
+        <v>867</v>
       </c>
     </row>
   </sheetData>

--- a/spreadsheet/web_scrape_pan.xlsx
+++ b/spreadsheet/web_scrape_pan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamlam/Desktop/FYP/ObjectPropertiesInformationExtraction/spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82233E9-4D1D-674B-80D5-AE184AF424CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBB96EA-9953-124A-8EC7-3AF28308E035}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="22100" windowWidth="32980" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3080" yWindow="22700" windowWidth="32980" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="878">
   <si>
     <t xml:space="preserve">Tefal B3430642 Precision Plus Frypan, 28cm-Black, Aluminium, 28 cm
 Easy Plus coating provides durable non-stick performance
@@ -8276,9 +8276,6 @@
   </si>
   <si>
     <t>Height</t>
-  </si>
-  <si>
-    <t>mea</t>
   </si>
 </sst>
 </file>
@@ -8669,8 +8666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9498,7 +9495,7 @@
         <v>334</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>878</v>
+        <v>465</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>692</v>
@@ -12559,7 +12556,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="272" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" ht="320" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>120</v>
       </c>
@@ -13263,7 +13260,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="395" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>142</v>
       </c>
@@ -13583,7 +13580,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="380" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>152</v>
       </c>

--- a/spreadsheet/web_scrape_pan.xlsx
+++ b/spreadsheet/web_scrape_pan.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamlam/Desktop/FYP/ObjectPropertiesInformationExtraction/spreadsheet/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0F9484-C0CF-4F4B-AA05-9B7C8A5CF234}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="26500" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="887">
   <si>
     <t xml:space="preserve">Tefal B3430642 Precision Plus Frypan, 28cm-Black, Aluminium, 28 cm
 Easy Plus coating provides durable non-stick performance
@@ -7060,9 +7066,6 @@
     <t>silver</t>
   </si>
   <si>
-    <t>gray</t>
-  </si>
-  <si>
     <t>796g</t>
   </si>
   <si>
@@ -8305,8 +8308,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8343,6 +8346,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -8389,7 +8400,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8421,9 +8432,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8455,6 +8484,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8630,49 +8677,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B1" t="s">
         <v>877</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>878</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>879</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>880</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>881</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>882</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>883</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>884</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>885</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>886</v>
       </c>
-      <c r="K1" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8689,25 +8738,25 @@
         <v>469</v>
       </c>
       <c r="F2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8724,25 +8773,25 @@
         <v>469</v>
       </c>
       <c r="F3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G3" t="s">
         <v>466</v>
       </c>
       <c r="H3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="K3" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -8759,25 +8808,25 @@
         <v>470</v>
       </c>
       <c r="F4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K4" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -8794,25 +8843,25 @@
         <v>469</v>
       </c>
       <c r="F5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G5" t="s">
         <v>466</v>
       </c>
       <c r="H5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K5" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -8829,25 +8878,25 @@
         <v>469</v>
       </c>
       <c r="F6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G6" t="s">
         <v>466</v>
       </c>
       <c r="H6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="K6" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -8864,25 +8913,25 @@
         <v>466</v>
       </c>
       <c r="F7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="K7" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -8899,25 +8948,25 @@
         <v>469</v>
       </c>
       <c r="F8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G8" t="s">
         <v>466</v>
       </c>
       <c r="H8" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="J8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K8" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -8934,25 +8983,25 @@
         <v>466</v>
       </c>
       <c r="F9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H9" t="s">
+        <v>622</v>
+      </c>
+      <c r="I9" t="s">
+        <v>632</v>
+      </c>
+      <c r="J9" t="s">
         <v>623</v>
       </c>
-      <c r="I9" t="s">
-        <v>633</v>
-      </c>
-      <c r="J9" t="s">
-        <v>624</v>
-      </c>
       <c r="K9" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -8969,25 +9018,25 @@
         <v>466</v>
       </c>
       <c r="F10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G10" t="s">
         <v>466</v>
       </c>
       <c r="H10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J10" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="K10" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -9004,25 +9053,25 @@
         <v>466</v>
       </c>
       <c r="F11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G11" t="s">
         <v>466</v>
       </c>
       <c r="H11" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I11" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="J11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="K11" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -9039,25 +9088,25 @@
         <v>466</v>
       </c>
       <c r="F12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G12" t="s">
         <v>466</v>
       </c>
       <c r="H12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I12" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J12" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="K12" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -9074,25 +9123,25 @@
         <v>466</v>
       </c>
       <c r="F13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G13" t="s">
         <v>466</v>
       </c>
       <c r="H13" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I13" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J13" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="K13" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -9109,25 +9158,25 @@
         <v>466</v>
       </c>
       <c r="F14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G14" t="s">
         <v>466</v>
       </c>
       <c r="H14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I14" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J14" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="K14" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -9144,25 +9193,25 @@
         <v>469</v>
       </c>
       <c r="F15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G15" t="s">
         <v>466</v>
       </c>
       <c r="H15" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I15" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J15" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="K15" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -9179,25 +9228,25 @@
         <v>471</v>
       </c>
       <c r="F16" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G16" t="s">
         <v>466</v>
       </c>
       <c r="H16" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I16" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J16" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="K16" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -9214,25 +9263,25 @@
         <v>469</v>
       </c>
       <c r="F17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G17" t="s">
         <v>466</v>
       </c>
       <c r="H17" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I17" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="K17" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -9249,25 +9298,25 @@
         <v>472</v>
       </c>
       <c r="F18" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G18" t="s">
         <v>466</v>
       </c>
       <c r="H18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I18" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J18" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="K18" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -9284,25 +9333,25 @@
         <v>466</v>
       </c>
       <c r="F19" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G19" t="s">
         <v>466</v>
       </c>
       <c r="H19" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I19" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="K19" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -9319,25 +9368,25 @@
         <v>469</v>
       </c>
       <c r="F20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G20" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H20" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I20" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="K20" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -9354,25 +9403,25 @@
         <v>466</v>
       </c>
       <c r="F21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G21" t="s">
         <v>466</v>
       </c>
       <c r="H21" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I21" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J21" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K21" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -9389,25 +9438,25 @@
         <v>466</v>
       </c>
       <c r="F22" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G22" t="s">
         <v>466</v>
       </c>
       <c r="H22" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I22" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J22" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="K22" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -9424,25 +9473,25 @@
         <v>466</v>
       </c>
       <c r="F23" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G23" t="s">
         <v>466</v>
       </c>
       <c r="H23" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I23" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J23" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K23" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -9459,25 +9508,25 @@
         <v>469</v>
       </c>
       <c r="F24" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G24" t="s">
         <v>466</v>
       </c>
       <c r="H24" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I24" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J24" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="K24" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -9494,25 +9543,25 @@
         <v>469</v>
       </c>
       <c r="F25" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G25" t="s">
         <v>466</v>
       </c>
       <c r="H25" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I25" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J25" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K25" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -9529,25 +9578,25 @@
         <v>466</v>
       </c>
       <c r="F26" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G26" t="s">
         <v>466</v>
       </c>
       <c r="H26" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I26" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J26" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="K26" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -9564,25 +9613,25 @@
         <v>466</v>
       </c>
       <c r="F27" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G27" t="s">
         <v>466</v>
       </c>
       <c r="H27" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I27" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J27" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="K27" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -9599,25 +9648,25 @@
         <v>469</v>
       </c>
       <c r="F28" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G28" t="s">
         <v>466</v>
       </c>
       <c r="H28" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I28" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J28" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="K28" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -9634,25 +9683,25 @@
         <v>466</v>
       </c>
       <c r="F29" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G29" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H29" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I29" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J29" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="K29" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -9669,25 +9718,25 @@
         <v>466</v>
       </c>
       <c r="F30" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G30" t="s">
         <v>466</v>
       </c>
       <c r="H30" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I30" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J30" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="K30" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -9704,25 +9753,25 @@
         <v>466</v>
       </c>
       <c r="F31" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G31" t="s">
         <v>466</v>
       </c>
       <c r="H31" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I31" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J31" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="K31" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -9739,25 +9788,25 @@
         <v>469</v>
       </c>
       <c r="F32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G32" t="s">
         <v>466</v>
       </c>
       <c r="H32" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I32" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J32" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="K32" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -9774,25 +9823,25 @@
         <v>466</v>
       </c>
       <c r="F33" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G33" t="s">
         <v>466</v>
       </c>
       <c r="H33" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I33" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J33" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K33" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -9809,25 +9858,25 @@
         <v>466</v>
       </c>
       <c r="F34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G34" t="s">
         <v>466</v>
       </c>
       <c r="H34" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I34" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J34" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K34" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -9844,25 +9893,25 @@
         <v>466</v>
       </c>
       <c r="F35" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G35" t="s">
         <v>466</v>
       </c>
       <c r="H35" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I35" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J35" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K35" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -9879,25 +9928,25 @@
         <v>469</v>
       </c>
       <c r="F36" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G36" t="s">
         <v>466</v>
       </c>
       <c r="H36" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I36" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J36" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="K36" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -9914,25 +9963,25 @@
         <v>466</v>
       </c>
       <c r="F37" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G37" t="s">
         <v>466</v>
       </c>
       <c r="H37" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I37" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J37" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K37" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -9949,25 +9998,25 @@
         <v>469</v>
       </c>
       <c r="F38" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G38" t="s">
         <v>466</v>
       </c>
       <c r="H38" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I38" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J38" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K38" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -9984,25 +10033,25 @@
         <v>466</v>
       </c>
       <c r="F39" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G39" t="s">
         <v>466</v>
       </c>
       <c r="H39" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I39" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J39" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="K39" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -10019,25 +10068,25 @@
         <v>466</v>
       </c>
       <c r="F40" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G40" t="s">
         <v>466</v>
       </c>
       <c r="H40" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I40" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="J40" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="K40" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -10054,25 +10103,25 @@
         <v>466</v>
       </c>
       <c r="F41" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G41" t="s">
         <v>466</v>
       </c>
       <c r="H41" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I41" t="s">
+        <v>753</v>
+      </c>
+      <c r="J41" t="s">
         <v>754</v>
       </c>
-      <c r="J41" t="s">
-        <v>755</v>
-      </c>
       <c r="K41" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -10089,25 +10138,25 @@
         <v>469</v>
       </c>
       <c r="F42" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G42" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H42" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I42" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J42" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="K42" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -10124,25 +10173,25 @@
         <v>469</v>
       </c>
       <c r="F43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G43" t="s">
         <v>466</v>
       </c>
       <c r="H43" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I43" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J43" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K43" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -10159,25 +10208,25 @@
         <v>469</v>
       </c>
       <c r="F44" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G44" t="s">
         <v>466</v>
       </c>
       <c r="H44" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I44" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="J44" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K44" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -10194,25 +10243,25 @@
         <v>466</v>
       </c>
       <c r="F45" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G45" t="s">
         <v>466</v>
       </c>
       <c r="H45" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I45" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K45" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -10229,25 +10278,25 @@
         <v>466</v>
       </c>
       <c r="F46" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G46" t="s">
         <v>466</v>
       </c>
       <c r="H46" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I46" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J46" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="K46" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -10264,25 +10313,25 @@
         <v>469</v>
       </c>
       <c r="F47" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G47" t="s">
         <v>466</v>
       </c>
       <c r="H47" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I47" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="J47" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="K47" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -10299,25 +10348,25 @@
         <v>466</v>
       </c>
       <c r="F48" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G48" t="s">
         <v>466</v>
       </c>
       <c r="H48" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I48" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="J48" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K48" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -10334,25 +10383,25 @@
         <v>469</v>
       </c>
       <c r="F49" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G49" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H49" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I49" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J49" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K49" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -10369,25 +10418,25 @@
         <v>466</v>
       </c>
       <c r="F50" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G50" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H50" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I50" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="J50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K50" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -10404,25 +10453,25 @@
         <v>469</v>
       </c>
       <c r="F51" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G51" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H51" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I51" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J51" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K51" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -10439,25 +10488,25 @@
         <v>466</v>
       </c>
       <c r="F52" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G52" t="s">
         <v>466</v>
       </c>
       <c r="H52" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I52" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J52" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K52" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -10474,25 +10523,25 @@
         <v>472</v>
       </c>
       <c r="F53" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G53" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H53" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I53" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="J53" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K53" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -10509,25 +10558,25 @@
         <v>469</v>
       </c>
       <c r="F54" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G54" t="s">
         <v>466</v>
       </c>
       <c r="H54" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I54" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J54" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K54" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -10544,25 +10593,25 @@
         <v>469</v>
       </c>
       <c r="F55" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G55" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H55" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I55" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="J55" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="K55" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -10579,25 +10628,25 @@
         <v>469</v>
       </c>
       <c r="F56" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G56" t="s">
         <v>466</v>
       </c>
       <c r="H56" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I56" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J56" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K56" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -10614,25 +10663,25 @@
         <v>466</v>
       </c>
       <c r="F57" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G57" t="s">
         <v>466</v>
       </c>
       <c r="H57" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I57" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="J57" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="K57" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -10649,25 +10698,25 @@
         <v>473</v>
       </c>
       <c r="F58" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G58" t="s">
         <v>466</v>
       </c>
       <c r="H58" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I58" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J58" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="K58" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -10684,25 +10733,25 @@
         <v>466</v>
       </c>
       <c r="F59" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G59" t="s">
         <v>466</v>
       </c>
       <c r="H59" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I59" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J59" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="K59" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -10719,25 +10768,25 @@
         <v>473</v>
       </c>
       <c r="F60" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G60" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H60" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I60" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J60" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="K60" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -10754,25 +10803,25 @@
         <v>469</v>
       </c>
       <c r="F61" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G61" t="s">
         <v>466</v>
       </c>
       <c r="H61" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I61" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="J61" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K61" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -10789,25 +10838,25 @@
         <v>466</v>
       </c>
       <c r="F62" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G62" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H62" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I62" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J62" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K62" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -10824,25 +10873,25 @@
         <v>466</v>
       </c>
       <c r="F63" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G63" t="s">
         <v>466</v>
       </c>
       <c r="H63" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I63" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="J63" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K63" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -10859,25 +10908,25 @@
         <v>469</v>
       </c>
       <c r="F64" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G64" t="s">
         <v>466</v>
       </c>
       <c r="H64" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I64" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="J64" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="K64" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -10894,25 +10943,25 @@
         <v>473</v>
       </c>
       <c r="F65" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G65" t="s">
         <v>466</v>
       </c>
       <c r="H65" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I65" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J65" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K65" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -10929,25 +10978,25 @@
         <v>466</v>
       </c>
       <c r="F66" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G66" t="s">
         <v>466</v>
       </c>
       <c r="H66" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I66" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J66" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K66" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -10964,25 +11013,25 @@
         <v>473</v>
       </c>
       <c r="F67" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G67" t="s">
         <v>466</v>
       </c>
       <c r="H67" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I67" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="J67" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="K67" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -10999,25 +11048,25 @@
         <v>469</v>
       </c>
       <c r="F68" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G68" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H68" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I68" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J68" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K68" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -11034,25 +11083,25 @@
         <v>469</v>
       </c>
       <c r="F69" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G69" t="s">
         <v>466</v>
       </c>
       <c r="H69" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I69" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J69" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K69" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -11069,25 +11118,25 @@
         <v>466</v>
       </c>
       <c r="F70" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G70" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H70" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I70" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J70" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K70" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -11104,25 +11153,25 @@
         <v>469</v>
       </c>
       <c r="F71" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G71" t="s">
         <v>466</v>
       </c>
       <c r="H71" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I71" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J71" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K71" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -11139,25 +11188,25 @@
         <v>466</v>
       </c>
       <c r="F72" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G72" t="s">
         <v>466</v>
       </c>
       <c r="H72" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I72" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="J72" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="K72" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -11174,25 +11223,25 @@
         <v>466</v>
       </c>
       <c r="F73" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G73" t="s">
         <v>466</v>
       </c>
       <c r="H73" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I73" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="J73" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="K73" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -11209,25 +11258,25 @@
         <v>472</v>
       </c>
       <c r="F74" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G74" t="s">
         <v>466</v>
       </c>
       <c r="H74" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I74" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="J74" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K74" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -11244,25 +11293,25 @@
         <v>466</v>
       </c>
       <c r="F75" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G75" t="s">
         <v>466</v>
       </c>
       <c r="H75" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I75" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="J75" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K75" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -11279,25 +11328,25 @@
         <v>466</v>
       </c>
       <c r="F76" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G76" t="s">
         <v>466</v>
       </c>
       <c r="H76" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I76" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="J76" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="K76" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -11314,25 +11363,25 @@
         <v>466</v>
       </c>
       <c r="F77" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G77" t="s">
         <v>466</v>
       </c>
       <c r="H77" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I77" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J77" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K77" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -11349,25 +11398,25 @@
         <v>469</v>
       </c>
       <c r="F78" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G78" t="s">
         <v>466</v>
       </c>
       <c r="H78" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I78" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J78" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K78" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -11384,25 +11433,25 @@
         <v>473</v>
       </c>
       <c r="F79" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G79" t="s">
         <v>466</v>
       </c>
       <c r="H79" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I79" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J79" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K79" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -11419,25 +11468,25 @@
         <v>466</v>
       </c>
       <c r="F80" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G80" t="s">
         <v>466</v>
       </c>
       <c r="H80" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I80" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J80" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="K80" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -11454,25 +11503,25 @@
         <v>469</v>
       </c>
       <c r="F81" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G81" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H81" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I81" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="J81" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="K81" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -11489,25 +11538,25 @@
         <v>466</v>
       </c>
       <c r="F82" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G82" t="s">
         <v>466</v>
       </c>
       <c r="H82" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I82" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="J82" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K82" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -11524,25 +11573,25 @@
         <v>469</v>
       </c>
       <c r="F83" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G83" t="s">
         <v>466</v>
       </c>
       <c r="H83" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I83" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J83" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K83" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -11559,25 +11608,25 @@
         <v>466</v>
       </c>
       <c r="F84" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G84" t="s">
         <v>466</v>
       </c>
       <c r="H84" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I84" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J84" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="K84" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -11594,25 +11643,25 @@
         <v>466</v>
       </c>
       <c r="F85" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G85" t="s">
         <v>466</v>
       </c>
       <c r="H85" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I85" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J85" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="K85" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -11629,25 +11678,25 @@
         <v>469</v>
       </c>
       <c r="F86" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G86" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H86" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I86" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J86" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="K86" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -11664,25 +11713,25 @@
         <v>469</v>
       </c>
       <c r="F87" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G87" t="s">
         <v>466</v>
       </c>
       <c r="H87" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I87" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J87" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K87" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -11699,25 +11748,25 @@
         <v>469</v>
       </c>
       <c r="F88" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G88" t="s">
         <v>466</v>
       </c>
       <c r="H88" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I88" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J88" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="K88" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -11734,25 +11783,25 @@
         <v>469</v>
       </c>
       <c r="F89" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G89" t="s">
         <v>466</v>
       </c>
       <c r="H89" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I89" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J89" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="K89" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -11766,28 +11815,28 @@
         <v>465</v>
       </c>
       <c r="E90" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F90" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G90" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H90" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I90" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J90" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K90" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -11819,10 +11868,10 @@
         <v>466</v>
       </c>
       <c r="K91" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -11839,25 +11888,25 @@
         <v>469</v>
       </c>
       <c r="F92" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G92" t="s">
         <v>466</v>
       </c>
       <c r="H92" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I92" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="J92" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="K92" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -11874,25 +11923,25 @@
         <v>469</v>
       </c>
       <c r="F93" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G93" t="s">
         <v>466</v>
       </c>
       <c r="H93" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I93" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J93" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="K93" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -11909,25 +11958,25 @@
         <v>466</v>
       </c>
       <c r="F94" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G94" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H94" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I94" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J94" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K94" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -11944,25 +11993,25 @@
         <v>466</v>
       </c>
       <c r="F95" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G95" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H95" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I95" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="J95" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="K95" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -11979,25 +12028,25 @@
         <v>466</v>
       </c>
       <c r="F96" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G96" t="s">
         <v>466</v>
       </c>
       <c r="H96" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I96" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="J96" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K96" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -12014,25 +12063,25 @@
         <v>466</v>
       </c>
       <c r="F97" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G97" t="s">
         <v>466</v>
       </c>
       <c r="H97" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I97" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J97" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="K97" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -12049,25 +12098,25 @@
         <v>469</v>
       </c>
       <c r="F98" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G98" t="s">
         <v>466</v>
       </c>
       <c r="H98" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I98" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J98" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K98" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -12084,25 +12133,25 @@
         <v>466</v>
       </c>
       <c r="F99" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G99" t="s">
         <v>466</v>
       </c>
       <c r="H99" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="I99" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J99" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K99" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -12119,25 +12168,25 @@
         <v>466</v>
       </c>
       <c r="F100" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G100" t="s">
         <v>466</v>
       </c>
       <c r="H100" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I100" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J100" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K100" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -12154,25 +12203,25 @@
         <v>469</v>
       </c>
       <c r="F101" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G101" t="s">
         <v>466</v>
       </c>
       <c r="H101" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I101" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J101" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="K101" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -12189,25 +12238,25 @@
         <v>466</v>
       </c>
       <c r="F102" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G102" t="s">
         <v>466</v>
       </c>
       <c r="H102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="I102" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J102" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="K102" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -12224,25 +12273,25 @@
         <v>469</v>
       </c>
       <c r="F103" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G103" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H103" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I103" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J103" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K103" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -12259,25 +12308,25 @@
         <v>469</v>
       </c>
       <c r="F104" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G104" t="s">
         <v>466</v>
       </c>
       <c r="H104" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I104" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J104" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="K104" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -12294,25 +12343,25 @@
         <v>466</v>
       </c>
       <c r="F105" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G105" t="s">
         <v>466</v>
       </c>
       <c r="H105" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I105" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J105" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="K105" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -12329,25 +12378,25 @@
         <v>469</v>
       </c>
       <c r="F106" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G106" t="s">
         <v>466</v>
       </c>
       <c r="H106" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I106" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J106" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="K106" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -12364,25 +12413,25 @@
         <v>466</v>
       </c>
       <c r="F107" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G107" t="s">
         <v>466</v>
       </c>
       <c r="H107" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I107" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J107" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K107" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -12399,25 +12448,25 @@
         <v>466</v>
       </c>
       <c r="F108" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G108" t="s">
         <v>466</v>
       </c>
       <c r="H108" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I108" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J108" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K108" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -12434,25 +12483,25 @@
         <v>469</v>
       </c>
       <c r="F109" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G109" t="s">
         <v>466</v>
       </c>
       <c r="H109" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I109" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="J109" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="K109" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -12469,25 +12518,25 @@
         <v>469</v>
       </c>
       <c r="F110" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G110" t="s">
         <v>466</v>
       </c>
       <c r="H110" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I110" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="J110" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K110" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -12504,25 +12553,25 @@
         <v>469</v>
       </c>
       <c r="F111" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G111" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H111" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I111" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J111" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K111" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -12539,25 +12588,25 @@
         <v>469</v>
       </c>
       <c r="F112" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G112" t="s">
         <v>466</v>
       </c>
       <c r="H112" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I112" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J112" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="K112" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -12574,25 +12623,25 @@
         <v>469</v>
       </c>
       <c r="F113" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G113" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H113" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I113" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J113" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K113" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -12609,25 +12658,25 @@
         <v>466</v>
       </c>
       <c r="F114" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G114" t="s">
         <v>466</v>
       </c>
       <c r="H114" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I114" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J114" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="K114" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -12644,25 +12693,25 @@
         <v>470</v>
       </c>
       <c r="F115" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G115" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H115" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I115" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="J115" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="K115" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -12679,25 +12728,25 @@
         <v>466</v>
       </c>
       <c r="F116" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G116" t="s">
         <v>466</v>
       </c>
       <c r="H116" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I116" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="J116" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="K116" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -12714,25 +12763,25 @@
         <v>466</v>
       </c>
       <c r="F117" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G117" t="s">
         <v>466</v>
       </c>
       <c r="H117" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I117" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="J117" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K117" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -12749,25 +12798,25 @@
         <v>466</v>
       </c>
       <c r="F118" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G118" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H118" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I118" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J118" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K118" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -12784,25 +12833,25 @@
         <v>466</v>
       </c>
       <c r="F119" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G119" t="s">
         <v>466</v>
       </c>
       <c r="H119" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I119" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J119" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K119" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -12819,25 +12868,25 @@
         <v>466</v>
       </c>
       <c r="F120" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G120" t="s">
         <v>466</v>
       </c>
       <c r="H120" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I120" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J120" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="K120" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -12854,25 +12903,25 @@
         <v>469</v>
       </c>
       <c r="F121" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G121" t="s">
         <v>466</v>
       </c>
       <c r="H121" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I121" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J121" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K121" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -12889,25 +12938,25 @@
         <v>473</v>
       </c>
       <c r="F122" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G122" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H122" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I122" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J122" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="K122" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -12924,25 +12973,25 @@
         <v>469</v>
       </c>
       <c r="F123" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G123" t="s">
         <v>466</v>
       </c>
       <c r="H123" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I123" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J123" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K123" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -12959,25 +13008,25 @@
         <v>469</v>
       </c>
       <c r="F124" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G124" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H124" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I124" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J124" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K124" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -12994,25 +13043,25 @@
         <v>466</v>
       </c>
       <c r="F125" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G125" t="s">
         <v>466</v>
       </c>
       <c r="H125" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I125" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="J125" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="K125" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -13029,25 +13078,25 @@
         <v>469</v>
       </c>
       <c r="F126" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G126" t="s">
         <v>466</v>
       </c>
       <c r="H126" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I126" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J126" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="K126" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -13064,25 +13113,25 @@
         <v>466</v>
       </c>
       <c r="F127" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G127" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H127" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I127" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J127" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="K127" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -13099,25 +13148,25 @@
         <v>466</v>
       </c>
       <c r="F128" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G128" t="s">
         <v>466</v>
       </c>
       <c r="H128" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="I128" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J128" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K128" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -13134,25 +13183,25 @@
         <v>466</v>
       </c>
       <c r="F129" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G129" t="s">
         <v>466</v>
       </c>
       <c r="H129" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I129" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="J129" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="K129" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -13169,25 +13218,25 @@
         <v>469</v>
       </c>
       <c r="F130" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G130" t="s">
         <v>466</v>
       </c>
       <c r="H130" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I130" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J130" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="K130" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -13204,25 +13253,25 @@
         <v>473</v>
       </c>
       <c r="F131" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G131" t="s">
         <v>466</v>
       </c>
       <c r="H131" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I131" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="J131" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K131" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -13239,25 +13288,25 @@
         <v>466</v>
       </c>
       <c r="F132" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G132" t="s">
         <v>466</v>
       </c>
       <c r="H132" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I132" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J132" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="K132" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -13274,25 +13323,25 @@
         <v>469</v>
       </c>
       <c r="F133" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G133" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H133" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I133" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J133" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="K133" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -13309,25 +13358,25 @@
         <v>466</v>
       </c>
       <c r="F134" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G134" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H134" t="s">
+        <v>718</v>
+      </c>
+      <c r="I134" t="s">
         <v>719</v>
       </c>
-      <c r="I134" t="s">
-        <v>720</v>
-      </c>
       <c r="J134" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="K134" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -13344,25 +13393,25 @@
         <v>466</v>
       </c>
       <c r="F135" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G135" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H135" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I135" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="J135" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="K135" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -13379,25 +13428,25 @@
         <v>466</v>
       </c>
       <c r="F136" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G136" t="s">
         <v>466</v>
       </c>
       <c r="H136" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I136" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J136" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="K136" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -13414,25 +13463,25 @@
         <v>469</v>
       </c>
       <c r="F137" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G137" t="s">
         <v>466</v>
       </c>
       <c r="H137" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I137" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J137" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K137" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -13449,25 +13498,25 @@
         <v>469</v>
       </c>
       <c r="F138" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G138" t="s">
         <v>466</v>
       </c>
       <c r="H138" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I138" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J138" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="K138" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -13484,25 +13533,25 @@
         <v>466</v>
       </c>
       <c r="F139" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G139" t="s">
         <v>466</v>
       </c>
       <c r="H139" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I139" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="J139" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K139" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -13519,25 +13568,25 @@
         <v>466</v>
       </c>
       <c r="F140" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G140" t="s">
         <v>466</v>
       </c>
       <c r="H140" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I140" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J140" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K140" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -13554,25 +13603,25 @@
         <v>469</v>
       </c>
       <c r="F141" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G141" t="s">
         <v>466</v>
       </c>
       <c r="H141" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I141" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J141" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K141" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -13589,25 +13638,25 @@
         <v>470</v>
       </c>
       <c r="F142" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G142" t="s">
         <v>466</v>
       </c>
       <c r="H142" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I142" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J142" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="K142" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -13624,25 +13673,25 @@
         <v>469</v>
       </c>
       <c r="F143" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G143" t="s">
         <v>466</v>
       </c>
       <c r="H143" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I143" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J143" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="K143" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -13659,25 +13708,25 @@
         <v>469</v>
       </c>
       <c r="F144" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G144" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H144" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I144" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J144" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="K144" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -13694,25 +13743,25 @@
         <v>469</v>
       </c>
       <c r="F145" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G145" t="s">
         <v>466</v>
       </c>
       <c r="H145" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I145" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J145" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="K145" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -13744,10 +13793,10 @@
         <v>466</v>
       </c>
       <c r="K146" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -13779,10 +13828,10 @@
         <v>466</v>
       </c>
       <c r="K147" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -13799,25 +13848,25 @@
         <v>469</v>
       </c>
       <c r="F148" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G148" t="s">
         <v>466</v>
       </c>
       <c r="H148" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I148" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J148" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="K148" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -13834,25 +13883,25 @@
         <v>469</v>
       </c>
       <c r="F149" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G149" t="s">
         <v>466</v>
       </c>
       <c r="H149" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I149" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J149" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="K149" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -13887,7 +13936,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -13904,25 +13953,25 @@
         <v>466</v>
       </c>
       <c r="F151" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G151" t="s">
         <v>466</v>
       </c>
       <c r="H151" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I151" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J151" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="K151" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -13939,25 +13988,25 @@
         <v>469</v>
       </c>
       <c r="F152" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G152" t="s">
         <v>466</v>
       </c>
       <c r="H152" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I152" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J152" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K152" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -13974,25 +14023,25 @@
         <v>469</v>
       </c>
       <c r="F153" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G153" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H153" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I153" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J153" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="K153" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -14009,25 +14058,25 @@
         <v>473</v>
       </c>
       <c r="F154" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G154" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H154" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I154" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="J154" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="K154" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -14044,25 +14093,25 @@
         <v>466</v>
       </c>
       <c r="F155" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G155" t="s">
         <v>466</v>
       </c>
       <c r="H155" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I155" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J155" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="K155" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>154</v>
       </c>
@@ -14079,22 +14128,22 @@
         <v>466</v>
       </c>
       <c r="F156" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G156" t="s">
         <v>466</v>
       </c>
       <c r="H156" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I156" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J156" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="K156" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
   </sheetData>
